--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 6 1 variable 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 6 1 variable 4.xlsx_with_dialog_acts.xlsx
@@ -831,12 +831,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -903,12 +903,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1011,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1299,12 +1299,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2307,12 +2307,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2559,12 +2559,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2631,12 +2631,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2707,12 +2707,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2959,12 +2959,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3319,12 +3319,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3463,12 +3463,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4219,12 +4219,12 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4975,12 +4975,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5047,12 +5047,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5623,12 +5623,12 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6451,12 +6451,12 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
